--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H2">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I2">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J2">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N2">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q2">
-        <v>0.003395799922666666</v>
+        <v>3.726091948333334</v>
       </c>
       <c r="R2">
-        <v>0.030562199304</v>
+        <v>33.53482753500001</v>
       </c>
       <c r="S2">
-        <v>5.856539197357171E-07</v>
+        <v>0.003476219553216153</v>
       </c>
       <c r="T2">
-        <v>5.856539197357172E-07</v>
+        <v>0.003476219553216152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H3">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I3">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J3">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P3">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q3">
-        <v>0.8098977580200001</v>
+        <v>42.38148112902</v>
       </c>
       <c r="R3">
-        <v>7.289079822180001</v>
+        <v>381.43333016118</v>
       </c>
       <c r="S3">
-        <v>0.0001396783695657507</v>
+        <v>0.03953937139443369</v>
       </c>
       <c r="T3">
-        <v>0.0001396783695657507</v>
+        <v>0.03953937139443368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H4">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I4">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J4">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N4">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q4">
-        <v>0.3870366255773334</v>
+        <v>17.208339531196</v>
       </c>
       <c r="R4">
-        <v>3.483329630196</v>
+        <v>154.875055780764</v>
       </c>
       <c r="S4">
-        <v>6.674996231010292E-05</v>
+        <v>0.01605434519228203</v>
       </c>
       <c r="T4">
-        <v>6.674996231010292E-05</v>
+        <v>0.01605434519228202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H5">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I5">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J5">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N5">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O5">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P5">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q5">
-        <v>0.52236720588</v>
+        <v>35.48266669110534</v>
       </c>
       <c r="R5">
-        <v>4.70130485292</v>
+        <v>319.344000219948</v>
       </c>
       <c r="S5">
-        <v>9.008964268565544E-05</v>
+        <v>0.03310319269148574</v>
       </c>
       <c r="T5">
-        <v>9.008964268565544E-05</v>
+        <v>0.03310319269148573</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H6">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I6">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J6">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N6">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O6">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P6">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q6">
-        <v>0.10641665411</v>
+        <v>6.342927179783334</v>
       </c>
       <c r="R6">
-        <v>0.95774988699</v>
+        <v>57.08634461805001</v>
       </c>
       <c r="S6">
-        <v>1.835306320277551E-05</v>
+        <v>0.005917569344162757</v>
       </c>
       <c r="T6">
-        <v>1.835306320277551E-05</v>
+        <v>0.005917569344162756</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H7">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I7">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J7">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N7">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q7">
-        <v>0.4117830452406667</v>
+        <v>32.79623220956134</v>
       </c>
       <c r="R7">
-        <v>3.706047407166</v>
+        <v>295.166089886052</v>
       </c>
       <c r="S7">
-        <v>7.10178337999742E-05</v>
+        <v>0.03059691098865377</v>
       </c>
       <c r="T7">
-        <v>7.101783379997422E-05</v>
+        <v>0.03059691098865376</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I8">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J8">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N8">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q8">
-        <v>0.2099778835497778</v>
+        <v>4.402902761944445</v>
       </c>
       <c r="R8">
-        <v>1.889800951948</v>
+        <v>39.6261248575</v>
       </c>
       <c r="S8">
-        <v>3.621366787185964E-05</v>
+        <v>0.004107643312137466</v>
       </c>
       <c r="T8">
-        <v>3.621366787185964E-05</v>
+        <v>0.004107643312137466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I9">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J9">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>111.38229</v>
       </c>
       <c r="O9">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P9">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q9">
-        <v>50.07969285399</v>
+        <v>50.07969285398999</v>
       </c>
       <c r="R9">
-        <v>450.71723568591</v>
+        <v>450.7172356859099</v>
       </c>
       <c r="S9">
-        <v>0.008636954204318419</v>
+        <v>0.04672133965882622</v>
       </c>
       <c r="T9">
-        <v>0.00863695420431842</v>
+        <v>0.04672133965882622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I10">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J10">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N10">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q10">
-        <v>23.93224964536689</v>
+        <v>20.33407835903533</v>
       </c>
       <c r="R10">
-        <v>215.390246808302</v>
+        <v>183.006705231318</v>
       </c>
       <c r="S10">
-        <v>0.004127456308408269</v>
+        <v>0.01897047141306469</v>
       </c>
       <c r="T10">
-        <v>0.004127456308408269</v>
+        <v>0.01897047141306469</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I11">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J11">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N11">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O11">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P11">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q11">
-        <v>32.30036009906</v>
+        <v>41.92777133299178</v>
       </c>
       <c r="R11">
-        <v>290.70324089154</v>
+        <v>377.349941996926</v>
       </c>
       <c r="S11">
-        <v>0.005570655790001481</v>
+        <v>0.03911608745879584</v>
       </c>
       <c r="T11">
-        <v>0.00557065579000148</v>
+        <v>0.03911608745879584</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I12">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J12">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N12">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O12">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P12">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q12">
-        <v>6.580229787778332</v>
+        <v>7.495062383302778</v>
       </c>
       <c r="R12">
-        <v>59.22206809000499</v>
+        <v>67.455561449725</v>
       </c>
       <c r="S12">
-        <v>0.001134854071422391</v>
+        <v>0.00699244215405528</v>
       </c>
       <c r="T12">
-        <v>0.001134854071422391</v>
+        <v>0.00699244215405528</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I13">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J13">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N13">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q13">
-        <v>25.46243426892411</v>
+        <v>38.75337038889711</v>
       </c>
       <c r="R13">
-        <v>229.161908420317</v>
+        <v>348.7803335000739</v>
       </c>
       <c r="S13">
-        <v>0.004391358376584851</v>
+        <v>0.03615456241201175</v>
       </c>
       <c r="T13">
-        <v>0.004391358376584851</v>
+        <v>0.03615456241201175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H14">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I14">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J14">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N14">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q14">
-        <v>2.874089453508</v>
+        <v>7.952497954444445</v>
       </c>
       <c r="R14">
-        <v>25.866805081572</v>
+        <v>71.57248159000001</v>
       </c>
       <c r="S14">
-        <v>0.0004956775406238418</v>
+        <v>0.007419202013658457</v>
       </c>
       <c r="T14">
-        <v>0.0004956775406238419</v>
+        <v>0.007419202013658457</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H15">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I15">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J15">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>111.38229</v>
       </c>
       <c r="O15">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P15">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q15">
-        <v>685.4698915586101</v>
+        <v>90.45365671547999</v>
       </c>
       <c r="R15">
-        <v>6169.229024027492</v>
+        <v>814.08291043932</v>
       </c>
       <c r="S15">
-        <v>0.1182190170193732</v>
+        <v>0.0843878182541629</v>
       </c>
       <c r="T15">
-        <v>0.1182190170193733</v>
+        <v>0.0843878182541629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H16">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I16">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J16">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N16">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q16">
-        <v>327.574624249242</v>
+        <v>36.72729680823733</v>
       </c>
       <c r="R16">
-        <v>2948.171618243179</v>
+        <v>330.5456712741361</v>
       </c>
       <c r="S16">
-        <v>0.05649489577314976</v>
+        <v>0.03426435768947545</v>
       </c>
       <c r="T16">
-        <v>0.05649489577314976</v>
+        <v>0.03426435768947545</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H17">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I17">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J17">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N17">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O17">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P17">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q17">
-        <v>442.11382044534</v>
+        <v>75.72970237770579</v>
       </c>
       <c r="R17">
-        <v>3979.02438400806</v>
+        <v>681.5673213993522</v>
       </c>
       <c r="S17">
-        <v>0.07624880670525969</v>
+        <v>0.07065125493813235</v>
       </c>
       <c r="T17">
-        <v>0.0762488067052597</v>
+        <v>0.07065125493813235</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H18">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I18">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J18">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N18">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O18">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P18">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q18">
-        <v>90.06743336485501</v>
+        <v>13.53753909507778</v>
       </c>
       <c r="R18">
-        <v>810.606900283695</v>
+        <v>121.8378518557</v>
       </c>
       <c r="S18">
-        <v>0.01553340791327907</v>
+        <v>0.01262970929254362</v>
       </c>
       <c r="T18">
-        <v>0.01553340791327907</v>
+        <v>0.01262970929254362</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H19">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I19">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J19">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N19">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q19">
-        <v>348.519151425807</v>
+        <v>69.99611742718311</v>
       </c>
       <c r="R19">
-        <v>3136.672362832263</v>
+        <v>629.9650568446481</v>
       </c>
       <c r="S19">
-        <v>0.06010707691376715</v>
+        <v>0.06530216522392174</v>
       </c>
       <c r="T19">
-        <v>0.06010707691376715</v>
+        <v>0.06530216522392174</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H20">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I20">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J20">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N20">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q20">
-        <v>0.07709226535111111</v>
+        <v>1.341629078888889</v>
       </c>
       <c r="R20">
-        <v>0.69383038816</v>
+        <v>12.07466171</v>
       </c>
       <c r="S20">
-        <v>1.329565593155711E-05</v>
+        <v>0.001251659191953926</v>
       </c>
       <c r="T20">
-        <v>1.329565593155711E-05</v>
+        <v>0.001251659191953926</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H21">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I21">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J21">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>111.38229</v>
       </c>
       <c r="O21">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P21">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q21">
-        <v>18.3864934008</v>
+        <v>15.26001727212</v>
       </c>
       <c r="R21">
-        <v>165.4784406072</v>
+        <v>137.34015544908</v>
       </c>
       <c r="S21">
-        <v>0.003171011889863459</v>
+        <v>0.01423667777374295</v>
       </c>
       <c r="T21">
-        <v>0.00317101188986346</v>
+        <v>0.01423667777374295</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H22">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I22">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J22">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N22">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q22">
-        <v>8.786598421315556</v>
+        <v>6.196092054242667</v>
       </c>
       <c r="R22">
-        <v>79.07938579184001</v>
+        <v>55.764828488184</v>
       </c>
       <c r="S22">
-        <v>0.001515373674473178</v>
+        <v>0.005780581008506753</v>
       </c>
       <c r="T22">
-        <v>0.001515373674473178</v>
+        <v>0.005780581008506753</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H23">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I23">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J23">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N23">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O23">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P23">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q23">
-        <v>11.8589057552</v>
+        <v>12.77600716498756</v>
       </c>
       <c r="R23">
-        <v>106.7301517968</v>
+        <v>114.984064484888</v>
       </c>
       <c r="S23">
-        <v>0.002045236703420197</v>
+        <v>0.01191924583042692</v>
       </c>
       <c r="T23">
-        <v>0.002045236703420198</v>
+        <v>0.01191924583042692</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H24">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I24">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J24">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N24">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O24">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P24">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q24">
-        <v>2.415896437733333</v>
+        <v>2.283855489255556</v>
       </c>
       <c r="R24">
-        <v>21.7430679396</v>
+        <v>20.5546994033</v>
       </c>
       <c r="S24">
-        <v>0.0004166556483466201</v>
+        <v>0.002130699730053997</v>
       </c>
       <c r="T24">
-        <v>0.0004166556483466202</v>
+        <v>0.002130699730053997</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H25">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I25">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J25">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N25">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q25">
-        <v>9.348397583404445</v>
+        <v>11.80872061679022</v>
       </c>
       <c r="R25">
-        <v>84.13557825064001</v>
+        <v>106.278485551112</v>
       </c>
       <c r="S25">
-        <v>0.001612263917972337</v>
+        <v>0.01101682569183894</v>
       </c>
       <c r="T25">
-        <v>0.001612263917972337</v>
+        <v>0.01101682569183894</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H26">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I26">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J26">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N26">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q26">
-        <v>0.027791417108</v>
+        <v>7.202698198055555</v>
       </c>
       <c r="R26">
-        <v>0.250122753972</v>
+        <v>64.8242837825</v>
       </c>
       <c r="S26">
-        <v>4.793024540600457E-06</v>
+        <v>0.006719683963568032</v>
       </c>
       <c r="T26">
-        <v>4.793024540600458E-06</v>
+        <v>0.006719683963568033</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H27">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I27">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J27">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>111.38229</v>
       </c>
       <c r="O27">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P27">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q27">
-        <v>6.62824869561</v>
+        <v>81.92525090408999</v>
       </c>
       <c r="R27">
-        <v>59.65423826049</v>
+        <v>737.32725813681</v>
       </c>
       <c r="S27">
-        <v>0.001143135613984816</v>
+        <v>0.07643132886785642</v>
       </c>
       <c r="T27">
-        <v>0.001143135613984816</v>
+        <v>0.07643132886785643</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H28">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I28">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J28">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N28">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q28">
-        <v>3.167529460642</v>
+        <v>33.26447061734866</v>
       </c>
       <c r="R28">
-        <v>28.507765145778</v>
+        <v>299.380235556138</v>
       </c>
       <c r="S28">
-        <v>0.0005462854369366344</v>
+        <v>0.03103374924473738</v>
       </c>
       <c r="T28">
-        <v>0.0005462854369366344</v>
+        <v>0.03103374924473738</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H29">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I29">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J29">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N29">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O29">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P29">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q29">
-        <v>4.27508252334</v>
+        <v>68.58954179929623</v>
       </c>
       <c r="R29">
-        <v>38.47574271006</v>
+        <v>617.3058761936661</v>
       </c>
       <c r="S29">
-        <v>0.0007372986907372333</v>
+        <v>0.06398991481020751</v>
       </c>
       <c r="T29">
-        <v>0.0007372986907372333</v>
+        <v>0.06398991481020751</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H30">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I30">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J30">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N30">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O30">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P30">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q30">
-        <v>0.8709198683549999</v>
+        <v>12.26115479749722</v>
       </c>
       <c r="R30">
-        <v>7.838278815194999</v>
+        <v>110.350393177475</v>
       </c>
       <c r="S30">
-        <v>0.0001502024990557395</v>
+        <v>0.01143891955514805</v>
       </c>
       <c r="T30">
-        <v>0.0001502024990557396</v>
+        <v>0.01143891955514805</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H31">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I31">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J31">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N31">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q31">
-        <v>3.370055547707</v>
+        <v>63.39654681481488</v>
       </c>
       <c r="R31">
-        <v>30.330499929363</v>
+        <v>570.5689213333339</v>
       </c>
       <c r="S31">
-        <v>0.0005812139366832307</v>
+        <v>0.05914516300184646</v>
       </c>
       <c r="T31">
-        <v>0.0005812139366832307</v>
+        <v>0.05914516300184647</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H32">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I32">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J32">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N32">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q32">
-        <v>5.594260573153777</v>
+        <v>4.328731102777778</v>
       </c>
       <c r="R32">
-        <v>50.34834515838399</v>
+        <v>38.958579925</v>
       </c>
       <c r="S32">
-        <v>0.000964809678809835</v>
+        <v>0.004038445617752877</v>
       </c>
       <c r="T32">
-        <v>0.0009648096788098351</v>
+        <v>0.004038445617752877</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H33">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I33">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J33">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>111.38229</v>
       </c>
       <c r="O33">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P33">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q33">
-        <v>1334.23028422092</v>
+        <v>49.2360462621</v>
       </c>
       <c r="R33">
-        <v>12008.07255798828</v>
+        <v>443.1244163589</v>
       </c>
       <c r="S33">
-        <v>0.2301069596498675</v>
+        <v>0.04593426815887466</v>
       </c>
       <c r="T33">
-        <v>0.2301069596498675</v>
+        <v>0.04593426815887466</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H34">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I34">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J34">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N34">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q34">
-        <v>637.6063914665129</v>
+        <v>19.99152881591334</v>
       </c>
       <c r="R34">
-        <v>5738.457523198615</v>
+        <v>179.92375934322</v>
       </c>
       <c r="S34">
-        <v>0.109964276728551</v>
+        <v>0.0186508933038131</v>
       </c>
       <c r="T34">
-        <v>0.109964276728551</v>
+        <v>0.0186508933038131</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H35">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I35">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J35">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N35">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O35">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P35">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q35">
-        <v>860.55077775848</v>
+        <v>41.22145267617112</v>
       </c>
       <c r="R35">
-        <v>7744.956999826319</v>
+        <v>370.9930740855401</v>
       </c>
       <c r="S35">
-        <v>0.1484142021329992</v>
+        <v>0.03845713465792908</v>
       </c>
       <c r="T35">
-        <v>0.1484142021329992</v>
+        <v>0.03845713465792908</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H36">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I36">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J36">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N36">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O36">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P36">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q36">
-        <v>175.3114158583933</v>
+        <v>7.368799950861112</v>
       </c>
       <c r="R36">
-        <v>1577.80274272554</v>
+        <v>66.31919955775001</v>
       </c>
       <c r="S36">
-        <v>0.03023494322694368</v>
+        <v>0.006874646903005001</v>
       </c>
       <c r="T36">
-        <v>0.03023494322694368</v>
+        <v>0.006874646903005001</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H37">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I37">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J37">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N37">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q37">
-        <v>678.373787367915</v>
+        <v>38.10052794938445</v>
       </c>
       <c r="R37">
-        <v>6105.364086311235</v>
+        <v>342.90475154446</v>
       </c>
       <c r="S37">
-        <v>0.1169951930813392</v>
+        <v>0.03554549970371805</v>
       </c>
       <c r="T37">
-        <v>0.1169951930813392</v>
+        <v>0.03554549970371805</v>
       </c>
     </row>
   </sheetData>
